--- a/simulation_data/one_step_algorithm/1s_error_level_1_percent_water_99.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_1_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.98658129015931</v>
+        <v>89.99798783216589</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09487092320803278</v>
+        <v>0.09895025126312157</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.01015913071323</v>
+        <v>88.99175987015731</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09560822158253378</v>
+        <v>0.1096106575292799</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.99868971360974</v>
+        <v>87.97941511971325</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09315994234413412</v>
+        <v>0.103453603455396</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.01017654199474</v>
+        <v>86.98887284566133</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09979444703272121</v>
+        <v>0.105239957518381</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.99019411249925</v>
+        <v>85.99516264743714</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09938709702246482</v>
+        <v>0.1020842467434537</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.99885760767145</v>
+        <v>84.98062141849678</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0971036733445956</v>
+        <v>0.1218461961392787</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.01095664414615</v>
+        <v>83.99108922957176</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1140130596804806</v>
+        <v>0.1136720484665107</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.01393392205028</v>
+        <v>82.99548402181914</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1186281116601794</v>
+        <v>0.1259843114244556</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.01006244866774</v>
+        <v>82.01828685846426</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1087811293697462</v>
+        <v>0.1280629579588694</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.99891443982224</v>
+        <v>81.00356372637333</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1243738939092275</v>
+        <v>0.1145014851322387</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.00921191332318</v>
+        <v>80.01166566742981</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1052223229630961</v>
+        <v>0.1298149902569676</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.01925152450156</v>
+        <v>78.99422999798584</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1142217571426188</v>
+        <v>0.1347309430290864</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.01034799417546</v>
+        <v>77.98505234643005</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1227071336459105</v>
+        <v>0.1221493689487457</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.99234174190237</v>
+        <v>77.00442848973896</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1293840529235213</v>
+        <v>0.1311760172969916</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.99038420602459</v>
+        <v>75.98396831083774</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1292612009023687</v>
+        <v>0.1225181341211167</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.9815579834975</v>
+        <v>74.98749113860426</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1254749911544465</v>
+        <v>0.1280922514675416</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.01176224125729</v>
+        <v>73.977060176959</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1346777884095641</v>
+        <v>0.1518445928570684</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.01189942971614</v>
+        <v>72.9802804649259</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1405056132394941</v>
+        <v>0.1491979878315722</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.97498923296202</v>
+        <v>71.99405794330772</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1481328292959614</v>
+        <v>0.1414584735536636</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.99949608741915</v>
+        <v>71.0071649124947</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1435869207122243</v>
+        <v>0.1373426078786034</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.99615161429335</v>
+        <v>69.99972518721577</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1276117910824152</v>
+        <v>0.1266555510991179</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.01492604261897</v>
+        <v>68.99453885218234</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1378786001919289</v>
+        <v>0.1489307469557898</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.97563012700063</v>
+        <v>67.99346944542555</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1411793402378005</v>
+        <v>0.14190831883472</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.993564116947</v>
+        <v>67.00865554465548</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1563109731182641</v>
+        <v>0.1465433336417036</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.0101501240931</v>
+        <v>66.0125396295591</v>
       </c>
       <c r="D26" t="n">
-        <v>0.157159394708203</v>
+        <v>0.1558790230058582</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.02238951071401</v>
+        <v>64.99342508303975</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1697399219653457</v>
+        <v>0.1547257893216027</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.96647937570898</v>
+        <v>64.00244685040464</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1577373786724509</v>
+        <v>0.1585890610553608</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.99784210036467</v>
+        <v>63.012540245897</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1767744542506486</v>
+        <v>0.1524588619075697</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.99358448529077</v>
+        <v>61.97145006488283</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1815948720291805</v>
+        <v>0.1612338550978419</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.98856735184533</v>
+        <v>60.98945831849547</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1734954866506865</v>
+        <v>0.1729650411230886</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.97272913551452</v>
+        <v>60.02708460746833</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1500513831638393</v>
+        <v>0.1739018895843885</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.98658582060131</v>
+        <v>59.00295306663783</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1690335932142514</v>
+        <v>0.1602142390061172</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.01674961344589</v>
+        <v>58.0022161070066</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1764368443583896</v>
+        <v>0.1839932331832523</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.99221070938451</v>
+        <v>56.99693161382741</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1774884690191018</v>
+        <v>0.1821474904129501</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.02672878316191</v>
+        <v>56.01932291576631</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1692013791594945</v>
+        <v>0.1608968005632676</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.99798803777545</v>
+        <v>54.98901578725469</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1841435970813332</v>
+        <v>0.1711145009532293</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.01214821088551</v>
+        <v>53.98786771481406</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1868582198051519</v>
+        <v>0.1713765980612468</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.98433873394262</v>
+        <v>53.00486196513224</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1883840492859995</v>
+        <v>0.1676710190794764</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.98511266579699</v>
+        <v>51.99931932094974</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1910578234841779</v>
+        <v>0.2036452342673342</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.99803581070746</v>
+        <v>51.01733642897115</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1886229850547436</v>
+        <v>0.1624105790860508</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.99440300925996</v>
+        <v>50.01554262437453</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1840919220231201</v>
+        <v>0.1804615309190735</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.02211834018113</v>
+        <v>49.01038443052092</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2160836712724178</v>
+        <v>0.1801351292078009</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.99398981803207</v>
+        <v>48.01897792214753</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1969134753547898</v>
+        <v>0.1916586729903198</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.99770104629309</v>
+        <v>47.03529412382422</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1872194286303966</v>
+        <v>0.1932251303678356</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.01600899295338</v>
+        <v>45.99941768081612</v>
       </c>
       <c r="D46" t="n">
-        <v>0.202939567646324</v>
+        <v>0.2043000945205221</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.99607795471285</v>
+        <v>44.98749732585113</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2048634735548994</v>
+        <v>0.1972273923930207</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.00495814790165</v>
+        <v>44.00608553340091</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2048840322490051</v>
+        <v>0.2091991089344276</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.9676005515591</v>
+        <v>43.01337891951549</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2182094140939262</v>
+        <v>0.2034678916769789</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.99638284817165</v>
+        <v>41.98136451133892</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1992461639835316</v>
+        <v>0.2083049316262761</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.95942799195148</v>
+        <v>40.98839498581023</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2081930661900533</v>
+        <v>0.2265903764453357</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.01037423204841</v>
+        <v>40.00253090624081</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2145189020088862</v>
+        <v>0.2129784868018867</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.01436246499575</v>
+        <v>39.01540875264496</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1792587067494679</v>
+        <v>0.2132594171553294</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.01651657772261</v>
+        <v>38.00584195580871</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2173903510879248</v>
+        <v>0.2013800968150338</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.96197223862266</v>
+        <v>37.02940571450213</v>
       </c>
       <c r="D55" t="n">
-        <v>0.219203004941687</v>
+        <v>0.2441537798657362</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.97277471544052</v>
+        <v>35.9566261549328</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2370842473518673</v>
+        <v>0.2084587524454483</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.96632107219283</v>
+        <v>35.04454301661515</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2345031910894285</v>
+        <v>0.2335290106153106</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.01056688775019</v>
+        <v>33.96384150160093</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2602688103305806</v>
+        <v>0.2160428751646133</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.97447521685417</v>
+        <v>32.97765342006377</v>
       </c>
       <c r="D59" t="n">
-        <v>0.237202480029099</v>
+        <v>0.2389410895117948</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.98750961834805</v>
+        <v>32.00287921144894</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2081009468665848</v>
+        <v>0.2621072857815713</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.98509147831881</v>
+        <v>31.00844902274294</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2344527747784771</v>
+        <v>0.212246688333967</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.99466799511321</v>
+        <v>30.00935497432066</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2239711977856752</v>
+        <v>0.2222587153031977</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.01769703546786</v>
+        <v>29.01622739449371</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2265786551404954</v>
+        <v>0.2371472891092947</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.00225047118793</v>
+        <v>27.99377586047887</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2668971667177166</v>
+        <v>0.1986563951639287</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.03601489837997</v>
+        <v>26.99725774801886</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2525234812197261</v>
+        <v>0.2648245059676556</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.97805241960673</v>
+        <v>25.96975611736229</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2275791976642219</v>
+        <v>0.2646951487857403</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.0099319467578</v>
+        <v>24.95035867288909</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2587421118773727</v>
+        <v>0.2604791985868297</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.01981003164347</v>
+        <v>24.01071095942671</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2392701820163473</v>
+        <v>0.2486727525212862</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.99182318509354</v>
+        <v>23.01066040907987</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2142025223041968</v>
+        <v>0.2450654466528261</v>
       </c>
     </row>
   </sheetData>
